--- a/xlookup-dynamic-array-demo.xlsx
+++ b/xlookup-dynamic-array-demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4664917D-87F1-49C7-84CE-33E3E654A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D165EBFA-FF4A-4EDC-97A4-3E36FD367D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>units</t>
   </si>
@@ -71,12 +71,6 @@
     <t>SKU456</t>
   </si>
   <si>
-    <t>SKU567</t>
-  </si>
-  <si>
-    <t>SKU678</t>
-  </si>
-  <si>
     <t>SKU789</t>
   </si>
   <si>
@@ -89,32 +83,32 @@
     <t>Exercise bike</t>
   </si>
   <si>
-    <t>Bluetooth spaker</t>
-  </si>
-  <si>
     <t>Ultrathin laptop</t>
   </si>
   <si>
-    <t>Wireless headphones</t>
-  </si>
-  <si>
     <t>Pro tablet</t>
   </si>
   <si>
-    <t>Compact camera</t>
-  </si>
-  <si>
     <t>product_name</t>
+  </si>
+  <si>
+    <t>Bluetooth speaker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,13 +152,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -187,15 +181,15 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A3A4ED2B-8A77-47F8-BF45-7F28102CBFA2}" name="sales" displayName="sales" ref="A1:F13" totalsRowShown="0">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8C272402-96F1-4C1B-8C09-DEA52A76A58A}" name="date" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{8C272402-96F1-4C1B-8C09-DEA52A76A58A}" name="date" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{191A4D44-5615-4EBA-BDAA-7D16B88A1C83}" name="country_id"/>
     <tableColumn id="6" xr3:uid="{69F4D21B-4182-4469-AFC2-0A8A484C2768}" name="product_id"/>
     <tableColumn id="3" xr3:uid="{B3EC22F2-D1C6-4187-ABBE-44421D96648B}" name="units"/>
-    <tableColumn id="7" xr3:uid="{F4DE0459-CD3C-43A6-86A5-A01DD38503E5}" name="product_name" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{827A4891-AB5D-4339-8B90-74F20CD8081C}" name="country_name" dataDxfId="1">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{08FA7263-7F86-4B55-B283-FED47AD988FB}" name="product_name" dataDxfId="0">
       <calculatedColumnFormula>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{77E1D2E2-A4AA-4BC6-B43F-5E852C3BDD55}" name="country_name" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -203,20 +197,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{266699D3-D5B4-4B8D-B71A-452139DDF900}" name="countries" displayName="countries" ref="H1:I4" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9488111-2E15-4DD7-A2C3-7B2155694FDE}" name="products" displayName="products" ref="H7:I12" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D047A628-07A1-4C24-ADB3-F6668F3B6C32}" name="country_id" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{64CF3736-5812-4A05-97F1-35547A8C3BB0}" name="country_name"/>
+    <tableColumn id="2" xr3:uid="{6B0CA803-A901-4CAE-99D5-25D1F2984D79}" name="product_name" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{88C84A46-7794-48F5-95C9-32CEAC8716E4}" name="product_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9488111-2E15-4DD7-A2C3-7B2155694FDE}" name="products" displayName="products" ref="H7:I14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{266699D3-D5B4-4B8D-B71A-452139DDF900}" name="countries" displayName="countries" ref="H1:I4" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{6B0CA803-A901-4CAE-99D5-25D1F2984D79}" name="product_name" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{88C84A46-7794-48F5-95C9-32CEAC8716E4}" name="product_id"/>
+    <tableColumn id="1" xr3:uid="{D047A628-07A1-4C24-ADB3-F6668F3B6C32}" name="country_id" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{64CF3736-5812-4A05-97F1-35547A8C3BB0}" name="country_name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -485,11 +479,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05D82EA-263F-46A9-8B32-BC9181CB771A}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -497,10 +489,9 @@
     <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" customWidth="1"/>
-    <col min="8" max="8" width="18.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="15.53125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -512,16 +503,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>1</v>
@@ -544,12 +535,12 @@
         <v>40</v>
       </c>
       <c r="E2" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>USA</v>
+      </c>
+      <c r="F2" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Smartwatch</v>
-      </c>
-      <c r="F2" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>USA</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -572,12 +563,12 @@
         <v>25</v>
       </c>
       <c r="E3" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>France</v>
+      </c>
+      <c r="F3" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Exercise bike</v>
-      </c>
-      <c r="F3" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>France</v>
       </c>
       <c r="H3" s="2">
         <v>2</v>
@@ -600,12 +591,12 @@
         <v>30</v>
       </c>
       <c r="E4" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>USA</v>
+      </c>
+      <c r="F4" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Smartwatch</v>
-      </c>
-      <c r="F4" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>USA</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
@@ -628,12 +619,12 @@
         <v>35</v>
       </c>
       <c r="E5" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
-        <v>Bluetooth spaker</v>
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>Other</v>
       </c>
       <c r="F5" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>UNKNOWN</v>
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
+        <v>Bluetooth speaker</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -650,12 +641,12 @@
         <v>25</v>
       </c>
       <c r="E6" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>Spain</v>
+      </c>
+      <c r="F6" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Ultrathin laptop</v>
-      </c>
-      <c r="F6" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>Spain</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -672,18 +663,18 @@
         <v>20</v>
       </c>
       <c r="E7" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>USA</v>
+      </c>
+      <c r="F7" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Smartwatch</v>
       </c>
-      <c r="F7" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>USA</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -700,15 +691,15 @@
         <v>10</v>
       </c>
       <c r="E8" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>France</v>
+      </c>
+      <c r="F8" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Exercise bike</v>
       </c>
-      <c r="F8" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>France</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
@@ -728,15 +719,15 @@
         <v>25</v>
       </c>
       <c r="E9" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>USA</v>
+      </c>
+      <c r="F9" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Smartwatch</v>
       </c>
-      <c r="F9" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>USA</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
@@ -756,15 +747,15 @@
         <v>20</v>
       </c>
       <c r="E10" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>Spain</v>
+      </c>
+      <c r="F10" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Ultrathin laptop</v>
       </c>
-      <c r="F10" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>Spain</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
@@ -784,15 +775,15 @@
         <v>30</v>
       </c>
       <c r="E11" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>USA</v>
+      </c>
+      <c r="F11" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Smartwatch</v>
       </c>
-      <c r="F11" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>USA</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
         <v>10</v>
@@ -806,21 +797,21 @@
         <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>15</v>
       </c>
       <c r="E12" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>Other</v>
+      </c>
+      <c r="F12" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Pro tablet</v>
       </c>
-      <c r="F12" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>UNKNOWN</v>
-      </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -840,29 +831,16 @@
         <v>20</v>
       </c>
       <c r="E13" t="str">
+        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "Other")</f>
+        <v>France</v>
+      </c>
+      <c r="F13" t="str">
         <f>_xlfn.XLOOKUP(sales[[#This Row],[product_id]], products[product_id], products[product_name])</f>
         <v>Exercise bike</v>
       </c>
-      <c r="F13" t="str">
-        <f>_xlfn.XLOOKUP(sales[[#This Row],[country_id]], countries[country_id], countries[country_name], "UNKNOWN")</f>
-        <v>France</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="H14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
